--- a/Liftee/Liftee/wwwroot/files/Пример даш борд.xlsx
+++ b/Liftee/Liftee/wwwroot/files/Пример даш борд.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/480935ecaf838498/Рабочий стол/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miraziz_Khidoyatov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{869DE9EB-5678-4B10-B39F-F28A574538B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A978A41F-761C-43B5-A98B-D1226AD823EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73663F12-F829-4DF2-8CFF-F7990177D1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CE04CA5-089B-4D7D-A037-97AC07C0C0E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7CE04CA5-089B-4D7D-A037-97AC07C0C0E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="173">
   <si>
     <t>Заказчик</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Геология</t>
   </si>
   <si>
-    <t>Нозим 94 477 04 11</t>
-  </si>
-  <si>
     <t>Подписан эл.</t>
   </si>
   <si>
@@ -157,18 +154,6 @@
     <t>Саид</t>
   </si>
   <si>
-    <t>Нозим 94 477 04 12</t>
-  </si>
-  <si>
-    <t>Манзара 3</t>
-  </si>
-  <si>
-    <t>Ахмад</t>
-  </si>
-  <si>
-    <t>MZ-1020/2022 от 22.06.2022</t>
-  </si>
-  <si>
     <t>Камол</t>
   </si>
   <si>
@@ -184,14 +169,398 @@
     <t>Закрыт</t>
   </si>
   <si>
-    <t>GI-1027/2022 от 01.02.2021</t>
+    <t>Г/П</t>
+  </si>
+  <si>
+    <t>ТИП Лифта</t>
+  </si>
+  <si>
+    <t>Взаимо расчет</t>
+  </si>
+  <si>
+    <t>№1 от 06.01.2022</t>
+  </si>
+  <si>
+    <t>Коларпак</t>
+  </si>
+  <si>
+    <t>998 93 182 33 88 Музаффар ака</t>
+  </si>
+  <si>
+    <t>MRL</t>
+  </si>
+  <si>
+    <t>№5 от 09.02.2022</t>
+  </si>
+  <si>
+    <t>N Medov</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>Файзулло</t>
+  </si>
+  <si>
+    <t>№6 от 15.02.2022</t>
+  </si>
+  <si>
+    <t>Отель Алмалык</t>
+  </si>
+  <si>
+    <t>Рустам</t>
+  </si>
+  <si>
+    <t>№7 от 15.02.2022</t>
+  </si>
+  <si>
+    <t>Машхура клиника</t>
+  </si>
+  <si>
+    <t>Шахзод</t>
+  </si>
+  <si>
+    <t>Долг</t>
+  </si>
+  <si>
+    <t>№8 от 22.02.2022</t>
+  </si>
+  <si>
+    <t>Маворо</t>
+  </si>
+  <si>
+    <t>№9 от 25.02.2022</t>
+  </si>
+  <si>
+    <t>Тезкор курилиш(Денов)</t>
+  </si>
+  <si>
+    <t>№10 от 03.03.2022</t>
+  </si>
+  <si>
+    <t>Чирчик технопарк 2</t>
+  </si>
+  <si>
+    <t>№11 от 14.03.2022</t>
+  </si>
+  <si>
+    <t>Акфа лайтинг</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>№13 от 26.07.2022</t>
+  </si>
+  <si>
+    <t>Иригация</t>
+  </si>
+  <si>
+    <t>№14 от 23.03.2022</t>
+  </si>
+  <si>
+    <t>Восточный Институт</t>
+  </si>
+  <si>
+    <t>Фозил ака</t>
+  </si>
+  <si>
+    <t>№15 от 04.04.2022</t>
+  </si>
+  <si>
+    <t>Silk Road</t>
+  </si>
+  <si>
+    <t>№18 от 16.05.2022</t>
+  </si>
+  <si>
+    <t>Янги Нурафшон ТЖМ</t>
+  </si>
+  <si>
+    <t>№19 от 16.05.2022</t>
+  </si>
+  <si>
+    <t>Файз Мехринисо</t>
+  </si>
+  <si>
+    <t>№20 от 14.06.2022</t>
+  </si>
+  <si>
+    <t>Кадышева Клиника</t>
+  </si>
+  <si>
+    <t>Жасур</t>
+  </si>
+  <si>
+    <t>№21 от 14.06.2022</t>
+  </si>
+  <si>
+    <t>Детский Сад</t>
+  </si>
+  <si>
+    <t>№22 от 17.06.2022</t>
+  </si>
+  <si>
+    <t>1-Гор больница</t>
+  </si>
+  <si>
+    <t>Машраб</t>
+  </si>
+  <si>
+    <t>№23 от 28.06.2022</t>
+  </si>
+  <si>
+    <t>Сурхандарё</t>
+  </si>
+  <si>
+    <t>№24 от 13.07.2022</t>
+  </si>
+  <si>
+    <t>Гранд Капитал</t>
+  </si>
+  <si>
+    <t>Фуркат</t>
+  </si>
+  <si>
+    <t>№25 от 15.07.2022</t>
+  </si>
+  <si>
+    <t>Буюк Ипак Йули</t>
+  </si>
+  <si>
+    <t>Элёр</t>
+  </si>
+  <si>
+    <t>№27 от 19.07.2022</t>
+  </si>
+  <si>
+    <t>Хамкор банк</t>
+  </si>
+  <si>
+    <t>Анвар офис</t>
+  </si>
+  <si>
+    <t>№28 от 11.08.2022</t>
+  </si>
+  <si>
+    <t>Текстил Фабрика</t>
+  </si>
+  <si>
+    <t>Жасур офис</t>
+  </si>
+  <si>
+    <t>№30 от 16.08.2022</t>
+  </si>
+  <si>
+    <t>Модерн Строй</t>
+  </si>
+  <si>
+    <t>№31 от 19.08.2022</t>
+  </si>
+  <si>
+    <t>Wyndham Бухоро</t>
+  </si>
+  <si>
+    <t>Бахтиёр ака Бух.</t>
+  </si>
+  <si>
+    <t>№32 от 23.08.2022</t>
+  </si>
+  <si>
+    <t>Эскалатор Техно комерц 8</t>
+  </si>
+  <si>
+    <t>9500 мм</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Эскалатор Техно комерц 9</t>
+  </si>
+  <si>
+    <t>Абдумалик ака</t>
+  </si>
+  <si>
+    <t>Эскалатор Техно комерц 10</t>
+  </si>
+  <si>
+    <t>Эскалатор Техно комерц 11</t>
+  </si>
+  <si>
+    <t>10200 мм</t>
+  </si>
+  <si>
+    <t>Эскалатор Техно комерц 12</t>
+  </si>
+  <si>
+    <t>№33 от 05.09.2022</t>
+  </si>
+  <si>
+    <t>КОЧ Жиззах</t>
+  </si>
+  <si>
+    <t>№34 от 05.09.2022</t>
+  </si>
+  <si>
+    <t>Нурафшон Сити</t>
+  </si>
+  <si>
+    <t>№35 от 24.08.2022</t>
+  </si>
+  <si>
+    <t>Нукус</t>
+  </si>
+  <si>
+    <t>Фаррух</t>
+  </si>
+  <si>
+    <t>№36 от 24.08.2022</t>
+  </si>
+  <si>
+    <t>Аэропорт</t>
+  </si>
+  <si>
+    <t>№37 от 26.08.2022</t>
+  </si>
+  <si>
+    <t>Севарсой</t>
+  </si>
+  <si>
+    <t>Сирожиддин</t>
+  </si>
+  <si>
+    <t>№39 от 07.09.2022</t>
+  </si>
+  <si>
+    <t>Тасельмаш Самсунг</t>
+  </si>
+  <si>
+    <t>№40 от 07.09.2022</t>
+  </si>
+  <si>
+    <t>ВМВ</t>
+  </si>
+  <si>
+    <t>№ МB-1004/2021</t>
+  </si>
+  <si>
+    <t>Сандерсен</t>
+  </si>
+  <si>
+    <t>ООО "DISCOVER INVEST"</t>
+  </si>
+  <si>
+    <t>ОС-1004/2021</t>
+  </si>
+  <si>
+    <t>Олмазор сити 2</t>
+  </si>
+  <si>
+    <t>АI-1012/2021</t>
+  </si>
+  <si>
+    <t>Архитектурный</t>
+  </si>
+  <si>
+    <t>SS-1012/2021</t>
+  </si>
+  <si>
+    <t>Ситуацион центр</t>
+  </si>
+  <si>
+    <t>GI-1027/2021</t>
+  </si>
+  <si>
+    <t>MZ-1016/2021</t>
+  </si>
+  <si>
+    <t>Манзара</t>
+  </si>
+  <si>
+    <t>901VAYNDK200008</t>
+  </si>
+  <si>
+    <t>901VAZNDK200001</t>
+  </si>
+  <si>
+    <t>901VAZNDK200002</t>
+  </si>
+  <si>
+    <t>901VAZNDK200003</t>
+  </si>
+  <si>
+    <t>901VAZNDK200004</t>
+  </si>
+  <si>
+    <t>901VAZNDK200005</t>
+  </si>
+  <si>
+    <t>901VAZNDK200006</t>
+  </si>
+  <si>
+    <t>901VAZNDK200007</t>
+  </si>
+  <si>
+    <t>901VAZNDK200008</t>
+  </si>
+  <si>
+    <t>SCH-1003/2021</t>
+  </si>
+  <si>
+    <t>Чоштепа подъёмник</t>
+  </si>
+  <si>
+    <t>№SCH-1003/2021</t>
+  </si>
+  <si>
+    <t>Чош тепа 2</t>
+  </si>
+  <si>
+    <t>GM1033/2021</t>
+  </si>
+  <si>
+    <t>Гулистон мактаб</t>
+  </si>
+  <si>
+    <t>Манзара 2</t>
+  </si>
+  <si>
+    <t>№ОС1005/2022</t>
+  </si>
+  <si>
+    <t>Олмазор сити 3</t>
+  </si>
+  <si>
+    <t>GI-1002/2022</t>
+  </si>
+  <si>
+    <t>Геология 2</t>
+  </si>
+  <si>
+    <t>№СHT2-1005/2022</t>
+  </si>
+  <si>
+    <t>Чош тепа 3</t>
+  </si>
+  <si>
+    <t>№ NG-1012/2022</t>
+  </si>
+  <si>
+    <t>Миллий Гвардия</t>
+  </si>
+  <si>
+    <t>№ SM-1021/2022</t>
+  </si>
+  <si>
+    <t>Сеул Мун</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,22 +570,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,34 +632,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -265,32 +747,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B1D7473-7F8E-442C-9746-C6BAC0FE8A32}" name="Таблица1" displayName="Таблица1" ref="A1:N4" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:N4" xr:uid="{4B1D7473-7F8E-442C-9746-C6BAC0FE8A32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B1D7473-7F8E-442C-9746-C6BAC0FE8A32}" name="Таблица1" displayName="Таблица1" ref="A1:N160" totalsRowShown="0">
+  <autoFilter ref="A1:N160" xr:uid="{4B1D7473-7F8E-442C-9746-C6BAC0FE8A32}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{60B866FF-0048-41B2-9A77-A32AA9260641}" name="№"/>
     <tableColumn id="2" xr3:uid="{5B2888E6-2C9E-4F83-9FB1-9EE3F08AE2A1}" name="№ Договор"/>
     <tableColumn id="3" xr3:uid="{0179F7D8-C7E1-4A4D-BA5F-8EB78B5CAD53}" name="Название объекта"/>
     <tableColumn id="4" xr3:uid="{2F56DF5B-A30A-4ADE-B1BC-A707E910C052}" name="Контактные данные"/>
     <tableColumn id="5" xr3:uid="{18155FD5-821B-4330-B11F-54D5A680188C}" name="Договор статус"/>
-    <tableColumn id="6" xr3:uid="{2235E535-B798-4704-9C0E-DFCF016AC289}" name="Сериный номер"/>
-    <tableColumn id="7" xr3:uid="{33D5140C-9810-45E7-89E6-384EC6164BCA}" name="Дата нач.монтажа" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{31D5C14E-0706-4E76-93D4-5CEC2BBAEE75}" name="Монтажник"/>
-    <tableColumn id="9" xr3:uid="{7F12DBD7-0D3E-43FE-AB23-858ECA6EDE76}" name="Статус монтажа"/>
-    <tableColumn id="10" xr3:uid="{A2DF0ACF-B9F3-4463-8050-77870C5747A7}" name="Дата окончание монтажа" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{979E5F29-B726-4F22-9578-23AA8F02A45C}" name="Проблема"/>
-    <tableColumn id="12" xr3:uid="{103B4E23-5424-4C6B-BB40-80E42C8DCDB4}" name="Документ Ф2/Ф3"/>
-    <tableColumn id="13" xr3:uid="{68E26BE8-7DF5-41BB-AF15-4778738EE798}" name="Паспорт лифта"/>
-    <tableColumn id="14" xr3:uid="{94DA54E5-2B5A-42A2-B99E-A85A982AA656}" name="Статус проекта"/>
+    <tableColumn id="6" xr3:uid="{2235E535-B798-4704-9C0E-DFCF016AC289}" name="Г/П"/>
+    <tableColumn id="7" xr3:uid="{33D5140C-9810-45E7-89E6-384EC6164BCA}" name="ТИП Лифта"/>
+    <tableColumn id="8" xr3:uid="{31D5C14E-0706-4E76-93D4-5CEC2BBAEE75}" name="Сериный номер"/>
+    <tableColumn id="9" xr3:uid="{7F12DBD7-0D3E-43FE-AB23-858ECA6EDE76}" name="Дата нач.монтажа"/>
+    <tableColumn id="10" xr3:uid="{A2DF0ACF-B9F3-4463-8050-77870C5747A7}" name="Монтажник"/>
+    <tableColumn id="11" xr3:uid="{979E5F29-B726-4F22-9578-23AA8F02A45C}" name="Статус монтажа"/>
+    <tableColumn id="12" xr3:uid="{103B4E23-5424-4C6B-BB40-80E42C8DCDB4}" name="Дата окончание монтажа"/>
+    <tableColumn id="13" xr3:uid="{68E26BE8-7DF5-41BB-AF15-4778738EE798}" name="Проблема"/>
+    <tableColumn id="14" xr3:uid="{94DA54E5-2B5A-42A2-B99E-A85A982AA656}" name="Документ Ф2/Ф3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -328,7 +810,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -434,7 +916,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,31 +1066,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8CD51F-6419-477F-9BD2-1556561E12D3}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -625,35 +1105,41 @@
         <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -661,186 +1147,6202 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1000040742</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1600</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1600020738</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1600</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1600020737</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="8">
+        <v>630</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="8">
+        <v>630041000</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1000060988</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1000060989</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5">
+        <v>630</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="5">
+        <v>630090703</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8">
+        <v>630</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="8">
+        <v>630090704</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5">
+        <v>630</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5">
+        <v>630090705</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8">
+        <v>630</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="8">
+        <v>630090706</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5">
+        <v>630</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5">
+        <v>630090707</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="8">
+        <v>630</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="8">
+        <v>630160708</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1000141055</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1000141056</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1000141063</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1000141064</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1000121065</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1000121066</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="14">
+        <v>450</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="14">
+        <v>450121073</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="16">
+        <v>450</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="16">
+        <v>450141074</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1000121075</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1000141076</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="10">
+        <v>450</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="12">
+        <v>450</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10">
+        <v>630</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="12">
+        <v>450</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="12">
+        <v>450060438</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="10">
+        <v>450</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="10">
+        <v>450060439</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="12">
+        <v>450</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="12">
+        <v>450060440</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="10">
+        <v>450</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="10">
+        <v>450060441</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="12">
+        <v>450</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="12">
+        <v>450060442</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="10">
+        <v>450</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="10">
+        <v>450060443</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="12">
+        <v>450</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="12">
+        <v>450090444</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1000101259</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1000101260</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1000101261</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="F2">
-        <v>100022222</v>
-      </c>
-      <c r="G2" s="3">
-        <v>44256</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5">
+        <v>630</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="5">
+        <v>630121277</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="8">
+        <v>630</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="8">
+        <v>630141278</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1000041405</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="8">
+        <v>1000041406</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="5">
+        <v>450</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="5">
+        <v>450041403</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="8">
+        <v>450</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="8">
+        <v>450041404</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="5">
+        <v>630</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="8">
+        <v>1000051303</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1000051304</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="8">
+        <v>1000051305</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+    </row>
+    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+    </row>
+    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+    </row>
+    <row r="66" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1000121067</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="8">
+        <v>1000121068</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q67" s="7"/>
+    </row>
+    <row r="68" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1000111069</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="8">
+        <v>1000111070</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q69" s="7"/>
+    </row>
+    <row r="70" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1000111071</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="8">
+        <v>1000111072</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1000061293</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" s="8">
+        <v>1000061294</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q73" s="7"/>
+    </row>
+    <row r="74" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="5">
+        <v>450</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="8">
+        <v>1000091283</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q75" s="7"/>
+    </row>
+    <row r="76" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="5">
+        <v>630091284</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K77" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3">
-        <v>44287</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="L77" s="7"/>
+      <c r="M77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q77" s="7"/>
+    </row>
+    <row r="78" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="8">
+        <v>800</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" s="8">
+        <v>800111383</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q79" s="7"/>
+    </row>
+    <row r="80" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="5">
+        <v>630</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="5">
+        <v>630111384</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="8">
+        <v>1000111385</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q81" s="7"/>
+    </row>
+    <row r="82" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1000101386</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1000101387</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q83" s="7"/>
+    </row>
+    <row r="84" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1000101388</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="8">
+        <v>450</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="8">
+        <v>450031389</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q85" s="7"/>
+    </row>
+    <row r="86" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="5">
+        <v>450</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H86" s="5">
+        <v>450031390</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q87" s="7"/>
+    </row>
+    <row r="88" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q88" s="4"/>
+    </row>
+    <row r="89" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q89" s="7"/>
+    </row>
+    <row r="90" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H90" s="5"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q90" s="4"/>
+    </row>
+    <row r="91" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q91" s="7"/>
+    </row>
+    <row r="92" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H92" s="5"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q92" s="4"/>
+    </row>
+    <row r="93" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q93" s="7"/>
+    </row>
+    <row r="94" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q94" s="4"/>
+    </row>
+    <row r="95" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q95" s="7"/>
+    </row>
+    <row r="96" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q97" s="7"/>
+    </row>
+    <row r="98" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q98" s="4"/>
+    </row>
+    <row r="99" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q99" s="7"/>
+    </row>
+    <row r="100" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q100" s="4"/>
+    </row>
+    <row r="101" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q101" s="7"/>
+    </row>
+    <row r="102" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" s="5">
+        <v>1250</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H102" s="5">
+        <v>1250041500</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q102" s="4"/>
+    </row>
+    <row r="103" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" s="8">
+        <v>1250</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" s="8">
+        <v>1250041502</v>
+      </c>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q103" s="7"/>
+    </row>
+    <row r="104" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1600</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104" s="5">
+        <v>1600051501</v>
+      </c>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q104" s="4"/>
+    </row>
+    <row r="105" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F105" s="8">
+        <v>1250</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H105" s="8">
+        <v>1250051509</v>
+      </c>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N105" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P105" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q105" s="7"/>
+    </row>
+    <row r="106" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" s="5">
+        <v>1600</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" s="5">
+        <v>1600041503</v>
+      </c>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q106" s="4"/>
+    </row>
+    <row r="107" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="8">
+        <v>1250</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H107" s="8">
+        <v>1250051510</v>
+      </c>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P107" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q107" s="7"/>
+    </row>
+    <row r="108" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1600</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q108" s="4"/>
+    </row>
+    <row r="109" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="8">
+        <v>1250</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H109" s="8">
+        <v>1250051504</v>
+      </c>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P109" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q109" s="7"/>
+    </row>
+    <row r="110" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="5">
+        <v>1250</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" s="5">
+        <v>1250051505</v>
+      </c>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q110" s="4"/>
+    </row>
+    <row r="111" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="6">
+        <v>110</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="8">
+        <v>1600</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P111" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q111" s="7"/>
+    </row>
+    <row r="112" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="5">
+        <v>630</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H112" s="5"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P112" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q112" s="4"/>
+    </row>
+    <row r="113" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="8">
+        <v>630</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" s="8"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P113" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q113" s="7"/>
+    </row>
+    <row r="114" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="5">
+        <v>630</v>
+      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q114" s="4"/>
+    </row>
+    <row r="115" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N115" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P115" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q115" s="7"/>
+    </row>
+    <row r="116" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="5">
+        <v>450</v>
+      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P116" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q116" s="4"/>
+    </row>
+    <row r="117" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N117" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P117" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q117" s="7"/>
+    </row>
+    <row r="118" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P118" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q118" s="4"/>
+    </row>
+    <row r="119" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+    </row>
+    <row r="120" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+    </row>
+    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+    </row>
+    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="5">
+        <v>630</v>
+      </c>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+    </row>
+    <row r="123" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="8">
+        <v>630</v>
+      </c>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+    </row>
+    <row r="124" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+    </row>
+    <row r="125" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="6">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+    </row>
+    <row r="126" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+    </row>
+    <row r="127" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="6">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+    </row>
+    <row r="128" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+    </row>
+    <row r="129" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="6">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>100022223</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44257</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3">
-        <v>44288</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4">
-        <v>303030303</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44409</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3">
-        <v>44440</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
-        <v>47</v>
-      </c>
+      <c r="D129" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+    </row>
+    <row r="130" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="5">
+        <v>1050</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+    </row>
+    <row r="131" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="6">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="8">
+        <v>1050</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+    </row>
+    <row r="132" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="5">
+        <v>1050</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+    </row>
+    <row r="133" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="8">
+        <v>1050</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+    </row>
+    <row r="134" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="5">
+        <v>1050</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+    </row>
+    <row r="135" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="6">
+        <v>134</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="8">
+        <v>1050</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+    </row>
+    <row r="136" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="5">
+        <v>1050</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+    </row>
+    <row r="137" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="6">
+        <v>136</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="8">
+        <v>1050</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+    </row>
+    <row r="138" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="5">
+        <v>1050</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+    </row>
+    <row r="139" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="6">
+        <v>138</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+    </row>
+    <row r="140" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="5">
+        <v>630</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" s="5">
+        <v>630090698</v>
+      </c>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+    </row>
+    <row r="141" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="6">
+        <v>140</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="8">
+        <v>630</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H141" s="8">
+        <v>630090699</v>
+      </c>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+    </row>
+    <row r="142" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="5">
+        <v>630</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H142" s="5">
+        <v>630090700</v>
+      </c>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+    </row>
+    <row r="143" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="6">
+        <v>142</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="8">
+        <v>630</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H143" s="8">
+        <v>630090701</v>
+      </c>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="7"/>
+    </row>
+    <row r="144" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H144" s="5">
+        <v>1000020499</v>
+      </c>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+    </row>
+    <row r="145" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
+        <v>144</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H145" s="8">
+        <v>1000131262</v>
+      </c>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+    </row>
+    <row r="146" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E146" s="4"/>
+      <c r="F146" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H146" s="5">
+        <v>1000131263</v>
+      </c>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+    </row>
+    <row r="147" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="6">
+        <v>146</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E147" s="7"/>
+      <c r="F147" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H147" s="8">
+        <v>1000131264</v>
+      </c>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+    </row>
+    <row r="148" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H148" s="5">
+        <v>1000131265</v>
+      </c>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+    </row>
+    <row r="149" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="6">
+        <v>148</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E149" s="7"/>
+      <c r="F149" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H149" s="8">
+        <v>1000131266</v>
+      </c>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7"/>
+    </row>
+    <row r="150" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H150" s="5">
+        <v>1000131267</v>
+      </c>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+    </row>
+    <row r="151" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="6">
+        <v>150</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H151" s="8">
+        <v>1000131268</v>
+      </c>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+    </row>
+    <row r="152" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H152" s="5">
+        <v>1000131269</v>
+      </c>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
+    </row>
+    <row r="153" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="6">
+        <v>152</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E153" s="7"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+    </row>
+    <row r="154" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+    </row>
+    <row r="155" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="6">
+        <v>154</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E155" s="7"/>
+      <c r="F155" s="8">
+        <v>630</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H155" s="8">
+        <v>630090972</v>
+      </c>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+    </row>
+    <row r="156" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="5">
+        <v>630</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H156" s="5">
+        <v>630090973</v>
+      </c>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
+    </row>
+    <row r="157" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="F157" s="8">
+        <v>630</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H157" s="8">
+        <v>630090974</v>
+      </c>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+    </row>
+    <row r="158" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="5">
+        <v>630</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H158" s="5">
+        <v>630090975</v>
+      </c>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
+    </row>
+    <row r="159" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E159" s="7"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+    </row>
+    <row r="160" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="19">
+        <v>159</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E160" s="20"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="20"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="20"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{38F8DEFE-5C79-48AC-A392-2588BD6D64BB}">
-          <x14:formula1>
-            <xm:f>Справочник!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10B99704-3636-47AD-B27C-B42044D13494}">
-          <x14:formula1>
-            <xm:f>Справочник!$B$2:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{903A32B8-E3CD-417B-A072-705B2718B698}">
-          <x14:formula1>
-            <xm:f>Справочник!$C$2:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64DCDEBE-BD63-4C1E-8EE9-918B62E0C0FA}">
-          <x14:formula1>
-            <xm:f>Справочник!$E$2:$E$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45B824C7-72F7-4602-B941-F793DB8146EC}">
-          <x14:formula1>
-            <xm:f>Справочник!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACD028A2-159E-4982-9BCE-64C8A22C52F5}">
-          <x14:formula1>
-            <xm:f>Справочник!$F$2:$F$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>N2:N4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -852,17 +7354,17 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -879,10 +7381,10 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -899,10 +7401,10 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -919,10 +7421,10 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -939,12 +7441,12 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -959,30 +7461,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>22</v>
       </c>

--- a/Liftee/Liftee/wwwroot/files/Пример даш борд.xlsx
+++ b/Liftee/Liftee/wwwroot/files/Пример даш борд.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miraziz_Khidoyatov\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73663F12-F829-4DF2-8CFF-F7990177D1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F127D6E3-3545-448B-AB81-C8D23616758A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7CE04CA5-089B-4D7D-A037-97AC07C0C0E2}"/>
   </bookViews>
@@ -1068,7 +1068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8CD51F-6419-477F-9BD2-1556561E12D3}">
   <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1079,7 +1081,7 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" customWidth="1"/>
     <col min="11" max="11" width="13.109375" customWidth="1"/>
@@ -6206,7 +6208,7 @@
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
     </row>
-    <row r="125" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -6235,7 +6237,7 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
     </row>
-    <row r="126" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -6262,7 +6264,7 @@
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
     </row>
-    <row r="127" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -6289,7 +6291,7 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
     </row>
-    <row r="128" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -6316,7 +6318,7 @@
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
     </row>
-    <row r="129" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -6640,7 +6642,7 @@
       <c r="P138" s="4"/>
       <c r="Q138" s="4"/>
     </row>
-    <row r="139" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -6667,7 +6669,7 @@
       <c r="P139" s="7"/>
       <c r="Q139" s="7"/>
     </row>
-    <row r="140" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -6700,7 +6702,7 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
     </row>
-    <row r="141" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -6733,7 +6735,7 @@
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
     </row>
-    <row r="142" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -6766,7 +6768,7 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
     </row>
-    <row r="143" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -6799,7 +6801,7 @@
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
     </row>
-    <row r="144" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -6832,7 +6834,7 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
     </row>
-    <row r="145" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -6865,7 +6867,7 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
     </row>
-    <row r="146" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -6898,7 +6900,7 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
     </row>
-    <row r="147" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -6931,7 +6933,7 @@
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
     </row>
-    <row r="148" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -6964,7 +6966,7 @@
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
     </row>
-    <row r="149" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -6997,7 +6999,7 @@
       <c r="P149" s="7"/>
       <c r="Q149" s="7"/>
     </row>
-    <row r="150" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -7030,7 +7032,7 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
     </row>
-    <row r="151" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -7063,7 +7065,7 @@
       <c r="P151" s="7"/>
       <c r="Q151" s="7"/>
     </row>
-    <row r="152" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -7096,7 +7098,7 @@
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
     </row>
-    <row r="153" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -7123,7 +7125,7 @@
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
     </row>
-    <row r="154" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -7150,7 +7152,7 @@
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
     </row>
-    <row r="155" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -7183,7 +7185,7 @@
       <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
     </row>
-    <row r="156" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -7216,7 +7218,7 @@
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
     </row>
-    <row r="157" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -7249,7 +7251,7 @@
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
     </row>
-    <row r="158" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -7282,7 +7284,7 @@
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
     </row>
-    <row r="159" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -7309,7 +7311,7 @@
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
     </row>
-    <row r="160" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="19">
         <v>159</v>
       </c>
